--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -4,13 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16507" windowHeight="9517" activeTab="1"/>
+    <workbookView windowWidth="20325" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
     <sheet name="Router" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -71,10 +84,10 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Match</t>
-  </si>
-  <si>
     <t>Map</t>
+  </si>
+  <si>
+    <t>Map0</t>
   </si>
   <si>
     <t>Map1</t>
@@ -104,7 +117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1096,17 +1109,17 @@
   <sheetPr/>
   <dimension ref="C3:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.1238938053097" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7522123893805" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6283185840708" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3716814159292" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1238938053097" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1262,7 +1275,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H10" s="5"/>
     </row>
@@ -1277,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>20</v>
@@ -1295,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>21</v>
@@ -1314,17 +1327,17 @@
   <sheetPr/>
   <dimension ref="C3:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.1238938053097" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7522123893805" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6283185840708" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3716814159292" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1238938053097" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
